--- a/07-13-25 to 07-19-25 Milwaukee Schedule.xlsx
+++ b/07-13-25 to 07-19-25 Milwaukee Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y52"/>
+  <dimension ref="A1:Y67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1163,10 +1163,15 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr"/>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Van</t>
+        </is>
+      </c>
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1240,10 +1245,14 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr"/>
+          <t>Jerry D</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>Rx</t>
+        </is>
+      </c>
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1311,15 +1320,10 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Van</t>
-        </is>
-      </c>
+          <t>Leyna</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1393,14 +1397,10 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>Rx</t>
-        </is>
-      </c>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1473,10 +1473,14 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Leyna</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr"/>
+          <t>Anisha</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr">
         <is>
@@ -1544,10 +1548,14 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr"/>
+          <t>Ashley P</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr">
         <is>
@@ -1615,7 +1623,7 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Brianna</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -1682,7 +1690,7 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -1753,7 +1761,7 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Brianna</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -1828,7 +1836,7 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -1910,7 +1918,7 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -1989,7 +1997,7 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -2068,12 +2076,13 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Supv Rx</t>
         </is>
       </c>
       <c r="P29" t="inlineStr"/>
@@ -2140,21 +2149,9 @@
         </is>
       </c>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>15)</t>
-        </is>
-      </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>Michael N</t>
-        </is>
-      </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2207,22 +2204,9 @@
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>16)</t>
-        </is>
-      </c>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>@ Store,
-Supv Rx</t>
-        </is>
-      </c>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2272,7 +2256,11 @@
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr"/>
-      <c r="N32" t="inlineStr"/>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr">
@@ -2340,7 +2328,11 @@
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr"/>
-      <c r="N33" t="inlineStr"/>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>DC5-ITEM LEVEL</t>
+        </is>
+      </c>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr"/>
@@ -2386,7 +2378,7 @@
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>AURORA OUTPATIENT RX #1094 MOB MILWAUKEE</t>
         </is>
       </c>
       <c r="O34" t="inlineStr"/>
@@ -2429,7 +2421,7 @@
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>2801 W KINNICKINNIC RIVER PKWY, SUITE 160</t>
         </is>
       </c>
       <c r="O35" t="inlineStr"/>
@@ -2480,7 +2472,7 @@
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1094 MOB MILWAUKEE</t>
+          <t>https://goo.gl/maps/bHQey4yoESDm33MX6</t>
         </is>
       </c>
       <c r="O36" t="inlineStr"/>
@@ -2531,7 +2523,7 @@
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr">
         <is>
-          <t>2801 W KINNICKINNIC RIVER PKWY, SUITE 160</t>
+          <t>ENTRANCE IS ON THE 27TH ST SIDE OF BUILDING</t>
         </is>
       </c>
       <c r="O37" t="inlineStr"/>
@@ -2580,11 +2572,7 @@
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr"/>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/bHQey4yoESDm33MX6</t>
-        </is>
-      </c>
+      <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr"/>
@@ -2630,13 +2618,21 @@
       </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>ENTRANCE IS ON THE 27TH ST SIDE OF BUILDING</t>
-        </is>
-      </c>
-      <c r="O39" t="inlineStr"/>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr"/>
       <c r="R39" t="inlineStr">
@@ -2720,21 +2716,9 @@
       </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="O41" t="inlineStr">
-        <is>
-          <t>White Camry, Equip</t>
-        </is>
-      </c>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="inlineStr"/>
+      <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr"/>
       <c r="R41" t="inlineStr">
@@ -2768,7 +2752,11 @@
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr"/>
-      <c r="N42" t="inlineStr"/>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>5:00 AM OFFICE LEAVE TIME</t>
+        </is>
+      </c>
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr"/>
@@ -2817,7 +2805,11 @@
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr"/>
-      <c r="N43" t="inlineStr"/>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>7:00 AM START</t>
+        </is>
+      </c>
       <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr">
@@ -2870,7 +2862,7 @@
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr">
         <is>
-          <t>5:00 AM OFFICE LEAVE TIME</t>
+          <t>MODAS</t>
         </is>
       </c>
       <c r="O44" t="inlineStr"/>
@@ -2932,7 +2924,7 @@
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>AURORA OUTPATIENT RX #1155 DEPERE</t>
         </is>
       </c>
       <c r="O45" t="inlineStr"/>
@@ -2975,7 +2967,7 @@
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr">
         <is>
-          <t>MODAS</t>
+          <t>1881 CHICAGO ST</t>
         </is>
       </c>
       <c r="O46" t="inlineStr"/>
@@ -3010,7 +3002,7 @@
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1155 DEPERE</t>
+          <t>https://goo.gl/maps/9vepkQciLjQDFTRi8</t>
         </is>
       </c>
       <c r="O47" t="inlineStr"/>
@@ -3043,11 +3035,7 @@
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr"/>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>1881 CHICAGO ST</t>
-        </is>
-      </c>
+      <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr"/>
@@ -3077,13 +3065,21 @@
       </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/9vepkQciLjQDFTRi8</t>
-        </is>
-      </c>
-      <c r="O49" t="inlineStr"/>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>Optima, Equip?</t>
+        </is>
+      </c>
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr"/>
       <c r="R49" t="inlineStr"/>
@@ -3124,9 +3120,21 @@
       </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="inlineStr"/>
-      <c r="O50" t="inlineStr"/>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>Jeremiah</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr"/>
       <c r="R50" t="inlineStr"/>
@@ -3151,21 +3159,9 @@
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N51" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="O51" t="inlineStr">
-        <is>
-          <t>Optima, Equip?</t>
-        </is>
-      </c>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="inlineStr"/>
+      <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr"/>
       <c r="R51" t="inlineStr"/>
@@ -3190,21 +3186,9 @@
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="N52" t="inlineStr">
-        <is>
-          <t>Jeremiah</t>
-        </is>
-      </c>
-      <c r="O52" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="inlineStr"/>
+      <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="inlineStr"/>
@@ -3216,6 +3200,505 @@
       <c r="X52" t="inlineStr"/>
       <c r="Y52" t="inlineStr"/>
     </row>
+    <row r="53">
+      <c r="A53" t="inlineStr"/>
+      <c r="B53" t="inlineStr"/>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>5:15 AM MEET RYAN RD PNR</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr"/>
+      <c r="P53" t="inlineStr"/>
+      <c r="Q53" t="inlineStr"/>
+      <c r="R53" t="inlineStr"/>
+      <c r="S53" t="inlineStr"/>
+      <c r="T53" t="inlineStr"/>
+      <c r="U53" t="inlineStr"/>
+      <c r="V53" t="inlineStr"/>
+      <c r="W53" t="inlineStr"/>
+      <c r="X53" t="inlineStr"/>
+      <c r="Y53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr"/>
+      <c r="B54" t="inlineStr"/>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr"/>
+      <c r="P54" t="inlineStr"/>
+      <c r="Q54" t="inlineStr"/>
+      <c r="R54" t="inlineStr"/>
+      <c r="S54" t="inlineStr"/>
+      <c r="T54" t="inlineStr"/>
+      <c r="U54" t="inlineStr"/>
+      <c r="V54" t="inlineStr"/>
+      <c r="W54" t="inlineStr"/>
+      <c r="X54" t="inlineStr"/>
+      <c r="Y54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr"/>
+      <c r="B55" t="inlineStr"/>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>DC5-FINANCIAL</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr"/>
+      <c r="P55" t="inlineStr"/>
+      <c r="Q55" t="inlineStr"/>
+      <c r="R55" t="inlineStr"/>
+      <c r="S55" t="inlineStr"/>
+      <c r="T55" t="inlineStr"/>
+      <c r="U55" t="inlineStr"/>
+      <c r="V55" t="inlineStr"/>
+      <c r="W55" t="inlineStr"/>
+      <c r="X55" t="inlineStr"/>
+      <c r="Y55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr"/>
+      <c r="B56" t="inlineStr"/>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>*SALE INVENTORY</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr"/>
+      <c r="P56" t="inlineStr"/>
+      <c r="Q56" t="inlineStr"/>
+      <c r="R56" t="inlineStr"/>
+      <c r="S56" t="inlineStr"/>
+      <c r="T56" t="inlineStr"/>
+      <c r="U56" t="inlineStr"/>
+      <c r="V56" t="inlineStr"/>
+      <c r="W56" t="inlineStr"/>
+      <c r="X56" t="inlineStr"/>
+      <c r="Y56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr"/>
+      <c r="B57" t="inlineStr"/>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>PIGGLY WIGGLY #102, ZION</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr"/>
+      <c r="P57" t="inlineStr"/>
+      <c r="Q57" t="inlineStr"/>
+      <c r="R57" t="inlineStr"/>
+      <c r="S57" t="inlineStr"/>
+      <c r="T57" t="inlineStr"/>
+      <c r="U57" t="inlineStr"/>
+      <c r="V57" t="inlineStr"/>
+      <c r="W57" t="inlineStr"/>
+      <c r="X57" t="inlineStr"/>
+      <c r="Y57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr"/>
+      <c r="B58" t="inlineStr"/>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>3341 SHERIDAN RD</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr"/>
+      <c r="P58" t="inlineStr"/>
+      <c r="Q58" t="inlineStr"/>
+      <c r="R58" t="inlineStr"/>
+      <c r="S58" t="inlineStr"/>
+      <c r="T58" t="inlineStr"/>
+      <c r="U58" t="inlineStr"/>
+      <c r="V58" t="inlineStr"/>
+      <c r="W58" t="inlineStr"/>
+      <c r="X58" t="inlineStr"/>
+      <c r="Y58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr"/>
+      <c r="B59" t="inlineStr"/>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>https://maps.app.goo.gl/hRjwu3CvKTpq7kaP9</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr"/>
+      <c r="P59" t="inlineStr"/>
+      <c r="Q59" t="inlineStr"/>
+      <c r="R59" t="inlineStr"/>
+      <c r="S59" t="inlineStr"/>
+      <c r="T59" t="inlineStr"/>
+      <c r="U59" t="inlineStr"/>
+      <c r="V59" t="inlineStr"/>
+      <c r="W59" t="inlineStr"/>
+      <c r="X59" t="inlineStr"/>
+      <c r="Y59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr"/>
+      <c r="B60" t="inlineStr"/>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="inlineStr"/>
+      <c r="O60" t="inlineStr"/>
+      <c r="P60" t="inlineStr"/>
+      <c r="Q60" t="inlineStr"/>
+      <c r="R60" t="inlineStr"/>
+      <c r="S60" t="inlineStr"/>
+      <c r="T60" t="inlineStr"/>
+      <c r="U60" t="inlineStr"/>
+      <c r="V60" t="inlineStr"/>
+      <c r="W60" t="inlineStr"/>
+      <c r="X60" t="inlineStr"/>
+      <c r="Y60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr"/>
+      <c r="B61" t="inlineStr"/>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>Driver,
+White Camry, Equip</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr"/>
+      <c r="Q61" t="inlineStr"/>
+      <c r="R61" t="inlineStr"/>
+      <c r="S61" t="inlineStr"/>
+      <c r="T61" t="inlineStr"/>
+      <c r="U61" t="inlineStr"/>
+      <c r="V61" t="inlineStr"/>
+      <c r="W61" t="inlineStr"/>
+      <c r="X61" t="inlineStr"/>
+      <c r="Y61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr"/>
+      <c r="B62" t="inlineStr"/>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>Caitlin</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr"/>
+      <c r="P62" t="inlineStr"/>
+      <c r="Q62" t="inlineStr"/>
+      <c r="R62" t="inlineStr"/>
+      <c r="S62" t="inlineStr"/>
+      <c r="T62" t="inlineStr"/>
+      <c r="U62" t="inlineStr"/>
+      <c r="V62" t="inlineStr"/>
+      <c r="W62" t="inlineStr"/>
+      <c r="X62" t="inlineStr"/>
+      <c r="Y62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr"/>
+      <c r="B63" t="inlineStr"/>
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>Driver
+Red Camry</t>
+        </is>
+      </c>
+      <c r="P63" t="inlineStr"/>
+      <c r="Q63" t="inlineStr"/>
+      <c r="R63" t="inlineStr"/>
+      <c r="S63" t="inlineStr"/>
+      <c r="T63" t="inlineStr"/>
+      <c r="U63" t="inlineStr"/>
+      <c r="V63" t="inlineStr"/>
+      <c r="W63" t="inlineStr"/>
+      <c r="X63" t="inlineStr"/>
+      <c r="Y63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr"/>
+      <c r="B64" t="inlineStr"/>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>Cynthia</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr"/>
+      <c r="P64" t="inlineStr"/>
+      <c r="Q64" t="inlineStr"/>
+      <c r="R64" t="inlineStr"/>
+      <c r="S64" t="inlineStr"/>
+      <c r="T64" t="inlineStr"/>
+      <c r="U64" t="inlineStr"/>
+      <c r="V64" t="inlineStr"/>
+      <c r="W64" t="inlineStr"/>
+      <c r="X64" t="inlineStr"/>
+      <c r="Y64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr"/>
+      <c r="B65" t="inlineStr"/>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>Lexi</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr"/>
+      <c r="P65" t="inlineStr"/>
+      <c r="Q65" t="inlineStr"/>
+      <c r="R65" t="inlineStr"/>
+      <c r="S65" t="inlineStr"/>
+      <c r="T65" t="inlineStr"/>
+      <c r="U65" t="inlineStr"/>
+      <c r="V65" t="inlineStr"/>
+      <c r="W65" t="inlineStr"/>
+      <c r="X65" t="inlineStr"/>
+      <c r="Y65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr"/>
+      <c r="B66" t="inlineStr"/>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>Monica</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr"/>
+      <c r="P66" t="inlineStr"/>
+      <c r="Q66" t="inlineStr"/>
+      <c r="R66" t="inlineStr"/>
+      <c r="S66" t="inlineStr"/>
+      <c r="T66" t="inlineStr"/>
+      <c r="U66" t="inlineStr"/>
+      <c r="V66" t="inlineStr"/>
+      <c r="W66" t="inlineStr"/>
+      <c r="X66" t="inlineStr"/>
+      <c r="Y66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr"/>
+      <c r="B67" t="inlineStr"/>
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>7)</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>Pamela</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr"/>
+      <c r="P67" t="inlineStr"/>
+      <c r="Q67" t="inlineStr"/>
+      <c r="R67" t="inlineStr"/>
+      <c r="S67" t="inlineStr"/>
+      <c r="T67" t="inlineStr"/>
+      <c r="U67" t="inlineStr"/>
+      <c r="V67" t="inlineStr"/>
+      <c r="W67" t="inlineStr"/>
+      <c r="X67" t="inlineStr"/>
+      <c r="Y67" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/07-13-25 to 07-19-25 Milwaukee Schedule.xlsx
+++ b/07-13-25 to 07-19-25 Milwaukee Schedule.xlsx
@@ -540,24 +540,64 @@
           <t> </t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kim </t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Bags 5-6</t>
+        </is>
+      </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ian  </t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Bag 8</t>
+        </is>
+      </c>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ  </t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Bag 1</t>
+        </is>
+      </c>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>Bags 1-4</t>
+        </is>
+      </c>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kim </t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>Bags 5-8</t>
+        </is>
+      </c>
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>
     </row>
@@ -571,24 +611,56 @@
           <t> </t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Bag 9, SB 11</t>
+        </is>
+      </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kim </t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Bags 5-6</t>
+        </is>
+      </c>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>Bag 9, SB 11</t>
+        </is>
+      </c>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ian </t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>Bag 9, SB 11</t>
+        </is>
+      </c>
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr"/>
     </row>

--- a/07-13-25 to 07-19-25 Milwaukee Schedule.xlsx
+++ b/07-13-25 to 07-19-25 Milwaukee Schedule.xlsx
@@ -571,7 +571,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Bag 1</t>
+          <t>Bag 12</t>
         </is>
       </c>
       <c r="P4" t="inlineStr"/>
@@ -1817,7 +1817,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -1892,7 +1892,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -1973,13 +1973,12 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>@ Store,
-Supv Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="L27" t="inlineStr"/>
@@ -2053,12 +2052,13 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Kayla</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Supv Rx</t>
         </is>
       </c>
       <c r="L28" t="inlineStr"/>
@@ -2132,7 +2132,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Kayla</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2212,7 +2212,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -2272,9 +2272,21 @@
       </c>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>17)</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr"/>
@@ -2392,11 +2404,7 @@
       </c>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>4:30 AM MEET WATERTOWN PLANK</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr"/>
@@ -2442,7 +2450,7 @@
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>4:30 AM MEET WATERTOWN PLANK</t>
         </is>
       </c>
       <c r="K34" t="inlineStr"/>
@@ -2485,7 +2493,7 @@
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="K35" t="inlineStr"/>
@@ -2536,7 +2544,7 @@
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1030, OSHKOSH</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="K36" t="inlineStr"/>
@@ -2587,7 +2595,7 @@
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr">
         <is>
-          <t>414 DOCTORS COURT SUITE 100</t>
+          <t>AURORA OUTPATIENT RX #1030, OSHKOSH</t>
         </is>
       </c>
       <c r="K37" t="inlineStr"/>
@@ -2638,7 +2646,7 @@
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/7jsxtRm7nJ82</t>
+          <t>414 DOCTORS COURT SUITE 100</t>
         </is>
       </c>
       <c r="K38" t="inlineStr"/>
@@ -2685,7 +2693,7 @@
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr">
         <is>
-          <t>TO FOLLOW (8:30 AM START)</t>
+          <t>https://goo.gl/maps/7jsxtRm7nJ82</t>
         </is>
       </c>
       <c r="K39" t="inlineStr"/>
@@ -2744,7 +2752,7 @@
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>TO FOLLOW (8:30 AM START)</t>
         </is>
       </c>
       <c r="K40" t="inlineStr"/>
@@ -2783,7 +2791,7 @@
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr">
         <is>
-          <t>AURORA VISION #1151, OSHKOSH</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="K41" t="inlineStr"/>
@@ -2818,7 +2826,7 @@
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr">
         <is>
-          <t>700 N WESTHAVEN DR</t>
+          <t>AURORA VISION #1151, OSHKOSH</t>
         </is>
       </c>
       <c r="K42" t="inlineStr"/>
@@ -2871,7 +2879,7 @@
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/eNMezENBFiv</t>
+          <t>700 N WESTHAVEN DR</t>
         </is>
       </c>
       <c r="K43" t="inlineStr"/>
@@ -2928,7 +2936,11 @@
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/eNMezENBFiv</t>
+        </is>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr"/>
@@ -2975,23 +2987,9 @@
       </c>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>Driver,
-Santa Fe,
-Equip</t>
-        </is>
-      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr">
@@ -3026,15 +3024,21 @@
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Leyna</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr"/>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>Driver,
+Santa Fe,
+Equip</t>
+        </is>
+      </c>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr">
@@ -3067,8 +3071,16 @@
       </c>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>Leyna</t>
+        </is>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr"/>
@@ -3130,11 +3142,7 @@
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>Office</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
@@ -3187,7 +3195,7 @@
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Office</t>
         </is>
       </c>
       <c r="K50" t="inlineStr"/>
@@ -3228,7 +3236,11 @@
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr"/>

--- a/07-13-25 to 07-19-25 Milwaukee Schedule.xlsx
+++ b/07-13-25 to 07-19-25 Milwaukee Schedule.xlsx
@@ -3092,7 +3092,11 @@
       <c r="O47" t="inlineStr"/>
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>7:00 AM START</t>
+        </is>
+      </c>
       <c r="S47" t="inlineStr"/>
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr"/>
@@ -3123,7 +3127,11 @@
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>DC5-ITEM LEVEL</t>
+        </is>
+      </c>
       <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr"/>
@@ -3162,7 +3170,11 @@
       </c>
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>PICK #879 RX ONLY, MILWAUKEE-35TH &amp; NORTH</t>
+        </is>
+      </c>
       <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr"/>
@@ -3217,7 +3229,11 @@
       </c>
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>2355 N 35TH STREET</t>
+        </is>
+      </c>
       <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr"/>
@@ -3248,7 +3264,11 @@
       <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/6NcR4utzrJq</t>
+        </is>
+      </c>
       <c r="S51" t="inlineStr"/>
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr"/>
@@ -3305,7 +3325,11 @@
       </c>
       <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
       <c r="R53" t="inlineStr"/>
       <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr"/>

--- a/07-13-25 to 07-19-25 Milwaukee Schedule.xlsx
+++ b/07-13-25 to 07-19-25 Milwaukee Schedule.xlsx
@@ -690,7 +690,11 @@
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>Red Van oil change scheduled this day</t>
+        </is>
+      </c>
       <c r="W6" t="inlineStr"/>
       <c r="X6" t="inlineStr"/>
       <c r="Y6" t="inlineStr"/>
@@ -1333,10 +1337,16 @@
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Greg</t>
-        </is>
-      </c>
-      <c r="S18" t="inlineStr"/>
+          <t>Jerry D</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>Driver,
+Santa Fe,
+Rx</t>
+        </is>
+      </c>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr">
         <is>
@@ -1404,14 +1414,13 @@
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
           <t>Driver,
-Santa Fe,
-Rx</t>
+White Camry</t>
         </is>
       </c>
       <c r="T19" t="inlineStr"/>
@@ -1481,15 +1490,10 @@
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="S20" t="inlineStr">
-        <is>
-          <t>Driver,
-White Camry</t>
-        </is>
-      </c>
+          <t>Leyna</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr">
         <is>
@@ -1561,7 +1565,7 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="S21" t="inlineStr"/>
@@ -1636,7 +1640,7 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="S22" t="inlineStr"/>
@@ -1711,10 +1715,14 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Sonia</t>
-        </is>
-      </c>
-      <c r="S23" t="inlineStr"/>
+          <t>Angela</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr">
         <is>
@@ -1778,7 +1786,7 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
@@ -1849,12 +1857,13 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Supv Rx</t>
         </is>
       </c>
       <c r="T25" t="inlineStr"/>
@@ -1924,13 +1933,12 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Brianna</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>@ Store,
-Supv Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T26" t="inlineStr"/>
@@ -2005,7 +2013,7 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Brianna</t>
+          <t>Elijah</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
@@ -2509,7 +2517,7 @@
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr">
         <is>
-          <t>7:00 AM OFFICE MEET</t>
+          <t>7:00 AM OFFICE LEAVE TIME</t>
         </is>
       </c>
       <c r="S35" t="inlineStr"/>
@@ -2904,7 +2912,7 @@
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>Equip</t>
+          <t>Optima, Equip</t>
         </is>
       </c>
       <c r="T43" t="inlineStr"/>
@@ -2951,22 +2959,9 @@
       </c>
       <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="R44" t="inlineStr">
-        <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="S44" t="inlineStr">
-        <is>
-          <t>Driver,
-Optima</t>
-        </is>
-      </c>
+      <c r="Q44" t="inlineStr"/>
+      <c r="R44" t="inlineStr"/>
+      <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr"/>
       <c r="V44" t="inlineStr"/>
@@ -3049,7 +3044,11 @@
       <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>7:00 AM START</t>
+        </is>
+      </c>
       <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr"/>
@@ -3094,7 +3093,7 @@
       <c r="Q47" t="inlineStr"/>
       <c r="R47" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="S47" t="inlineStr"/>
@@ -3129,7 +3128,7 @@
       <c r="Q48" t="inlineStr"/>
       <c r="R48" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>PICK #879 RX ONLY, MILWAUKEE-35TH &amp; NORTH</t>
         </is>
       </c>
       <c r="S48" t="inlineStr"/>
@@ -3172,7 +3171,7 @@
       <c r="Q49" t="inlineStr"/>
       <c r="R49" t="inlineStr">
         <is>
-          <t>PICK #879 RX ONLY, MILWAUKEE-35TH &amp; NORTH</t>
+          <t>2355 N 35TH STREET</t>
         </is>
       </c>
       <c r="S49" t="inlineStr"/>
@@ -3231,7 +3230,7 @@
       <c r="Q50" t="inlineStr"/>
       <c r="R50" t="inlineStr">
         <is>
-          <t>2355 N 35TH STREET</t>
+          <t>https://goo.gl/maps/6NcR4utzrJq</t>
         </is>
       </c>
       <c r="S50" t="inlineStr"/>
@@ -3264,11 +3263,7 @@
       <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/6NcR4utzrJq</t>
-        </is>
-      </c>
+      <c r="R51" t="inlineStr"/>
       <c r="S51" t="inlineStr"/>
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr"/>
@@ -3294,9 +3289,21 @@
       <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" t="inlineStr"/>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>Red Van available, Equip</t>
+        </is>
+      </c>
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr"/>
       <c r="V52" t="inlineStr"/>
@@ -3325,11 +3332,7 @@
       </c>
       <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="Q53" t="inlineStr"/>
       <c r="R53" t="inlineStr"/>
       <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr"/>

--- a/07-13-25 to 07-19-25 Milwaukee Schedule.xlsx
+++ b/07-13-25 to 07-19-25 Milwaukee Schedule.xlsx
@@ -1111,12 +1111,12 @@
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>White Camry available, Equip</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="X15" t="inlineStr"/>
@@ -2256,7 +2256,7 @@
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="W30" t="inlineStr">
@@ -3052,7 +3052,11 @@
       <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr"/>
-      <c r="V46" t="inlineStr"/>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>Office / Mapping</t>
+        </is>
+      </c>
       <c r="W46" t="inlineStr"/>
       <c r="X46" t="inlineStr"/>
       <c r="Y46" t="inlineStr"/>
@@ -3099,7 +3103,11 @@
       <c r="S47" t="inlineStr"/>
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr"/>
-      <c r="V47" t="inlineStr"/>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
       <c r="W47" t="inlineStr"/>
       <c r="X47" t="inlineStr"/>
       <c r="Y47" t="inlineStr"/>
